--- a/MyData.xlsx
+++ b/MyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praja\eclipse-workspace\RestAssuredApiAutomationFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E76E66-1ED8-498F-8696-47602C5AD430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F5A54F-6E5D-4A3D-AD3B-B5EB86B085B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,16 +54,16 @@
     <t>KAMALt</t>
   </si>
   <si>
-    <t>KASt</t>
-  </si>
-  <si>
-    <t>P12@gmail.com</t>
-  </si>
-  <si>
-    <t>P2@gmail.com</t>
-  </si>
-  <si>
-    <t>P3@gmail.com</t>
+    <t>PK@gmail.com</t>
+  </si>
+  <si>
+    <t>PR@gmail.com</t>
+  </si>
+  <si>
+    <t>KAMALyy</t>
+  </si>
+  <si>
+    <t>PR55@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +437,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -451,7 +451,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -462,13 +462,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -479,7 +479,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{6D145B3E-4F0D-4898-B6CF-42F59FFE9820}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{530D2CB1-DABD-442C-B87F-D6E7135F97FC}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{91E9C973-1E4D-43ED-A143-F92F1BD46F08}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{13AE3E3B-549D-4CEF-AC50-E1074E7587B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
